--- a/data/output/FV2304_FV2210/UTILMD/11142.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11142.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8836" uniqueCount="556">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8857" uniqueCount="556">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1814,6 +1814,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U404" totalsRowShown="0">
+  <autoFilter ref="A1:U404"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2103,7 +2133,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20818,5 +20851,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11142.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11142.xlsx
@@ -3416,7 +3416,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -5906,7 +5906,7 @@
         <v>515</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -6060,7 +6060,7 @@
         <v>516</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -6320,7 +6320,7 @@
         <v>515</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -6884,7 +6884,7 @@
         <v>519</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -7082,7 +7082,7 @@
         <v>522</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -7286,7 +7286,7 @@
         <v>519</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -7544,7 +7544,7 @@
         <v>523</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7748,7 +7748,7 @@
         <v>519</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7950,7 +7950,7 @@
         <v>519</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -8148,7 +8148,7 @@
         <v>519</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -8404,7 +8404,7 @@
         <v>525</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8934,7 +8934,7 @@
         <v>519</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -9220,7 +9220,7 @@
         <v>526</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -9370,7 +9370,7 @@
         <v>527</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -9626,7 +9626,7 @@
         <v>522</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9814,7 +9814,7 @@
         <v>527</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -10102,7 +10102,7 @@
         <v>527</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -10500,7 +10500,7 @@
         <v>529</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10710,7 +10710,7 @@
         <v>522</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -11052,7 +11052,7 @@
         <v>526</v>
       </c>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -11392,7 +11392,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -11790,7 +11790,7 @@
         <v>532</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -12132,7 +12132,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -12546,7 +12546,7 @@
         <v>526</v>
       </c>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -12754,7 +12754,7 @@
         <v>534</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12960,7 +12960,7 @@
         <v>535</v>
       </c>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -13248,7 +13248,7 @@
         <v>535</v>
       </c>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -13548,7 +13548,7 @@
         <v>536</v>
       </c>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -13836,7 +13836,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -14040,7 +14040,7 @@
         <v>538</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -14436,7 +14436,7 @@
         <v>539</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -14718,7 +14718,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -14854,7 +14854,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -15318,7 +15318,7 @@
         <v>540</v>
       </c>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -15526,7 +15526,7 @@
         <v>541</v>
       </c>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -15732,7 +15732,7 @@
         <v>542</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -15872,7 +15872,7 @@
         <v>543</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -16078,7 +16078,7 @@
         <v>544</v>
       </c>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -17132,7 +17132,7 @@
         <v>544</v>
       </c>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="4"/>
-      <c r="M282" s="2" t="s">
+      <c r="M282" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N282" s="2" t="s">
@@ -17414,7 +17414,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="4"/>
-      <c r="M285" s="2" t="s">
+      <c r="M285" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N285" s="2" t="s">
@@ -17658,7 +17658,7 @@
         <v>544</v>
       </c>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -18038,7 +18038,7 @@
         <v>548</v>
       </c>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -18326,7 +18326,7 @@
         <v>549</v>
       </c>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -18572,7 +18572,7 @@
         <v>519</v>
       </c>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -18710,7 +18710,7 @@
       </c>
       <c r="K312" s="2"/>
       <c r="L312" s="4"/>
-      <c r="M312" s="2" t="s">
+      <c r="M312" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N312" s="2" t="s">
@@ -18856,7 +18856,7 @@
         <v>551</v>
       </c>
       <c r="L315" s="4"/>
-      <c r="M315" s="2" t="s">
+      <c r="M315" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N315" s="2" t="s">
@@ -19142,7 +19142,7 @@
       </c>
       <c r="K321" s="2"/>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -19386,7 +19386,7 @@
         <v>552</v>
       </c>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="K329" s="2"/>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -19676,7 +19676,7 @@
         <v>553</v>
       </c>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -19824,7 +19824,7 @@
         <v>519</v>
       </c>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -19962,7 +19962,7 @@
       </c>
       <c r="K338" s="2"/>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="K343" s="2"/>
       <c r="L343" s="4"/>
-      <c r="M343" s="2" t="s">
+      <c r="M343" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N343" s="2" t="s">
@@ -20362,7 +20362,7 @@
         <v>522</v>
       </c>
       <c r="L346" s="4"/>
-      <c r="M346" s="2" t="s">
+      <c r="M346" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N346" s="2" t="s">
@@ -20650,7 +20650,7 @@
         <v>554</v>
       </c>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -20946,7 +20946,7 @@
       </c>
       <c r="K358" s="2"/>
       <c r="L358" s="4"/>
-      <c r="M358" s="2" t="s">
+      <c r="M358" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N358" s="2" t="s">
@@ -21096,7 +21096,7 @@
         <v>554</v>
       </c>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -21596,7 +21596,7 @@
       </c>
       <c r="K371" s="2"/>
       <c r="L371" s="4"/>
-      <c r="M371" s="2" t="s">
+      <c r="M371" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N371" s="2" t="s">
@@ -21746,7 +21746,7 @@
         <v>554</v>
       </c>
       <c r="L374" s="4"/>
-      <c r="M374" s="2" t="s">
+      <c r="M374" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N374" s="2" t="s">
@@ -22246,7 +22246,7 @@
         <v>554</v>
       </c>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -22746,7 +22746,7 @@
         <v>519</v>
       </c>
       <c r="L394" s="4"/>
-      <c r="M394" s="2" t="s">
+      <c r="M394" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N394" s="2" t="s">
@@ -23136,7 +23136,7 @@
       </c>
       <c r="K402" s="2"/>
       <c r="L402" s="4"/>
-      <c r="M402" s="2" t="s">
+      <c r="M402" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N402" s="2"/>
